--- a/0_Data/9_Supplementary Information/Water.Codes.All_mapped.xlsx
+++ b/0_Data/9_Supplementary Information/Water.Codes.All_mapped.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5291" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5331" uniqueCount="879">
   <si>
     <t>Country_long</t>
   </si>
@@ -2629,6 +2629,33 @@
   </si>
   <si>
     <t>Jordan</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Tap water</t>
+  </si>
+  <si>
+    <t>Public tap water</t>
+  </si>
+  <si>
+    <t>Drilled well</t>
+  </si>
+  <si>
+    <t>Protected dug well</t>
+  </si>
+  <si>
+    <t>Unprotected dug well</t>
+  </si>
+  <si>
+    <t>Protected stream water</t>
+  </si>
+  <si>
+    <t>Unprotected stream water</t>
+  </si>
+  <si>
+    <t>Bought water</t>
   </si>
 </sst>
 </file>
@@ -2962,10 +2989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1326"/>
+  <dimension ref="A1:D1336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A692" workbookViewId="0">
-      <selection activeCell="A704" sqref="A704:D708"/>
+    <sheetView tabSelected="1" topLeftCell="A1316" workbookViewId="0">
+      <selection activeCell="A1327" sqref="A1327:D1336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21498,6 +21525,146 @@
         <v>358</v>
       </c>
     </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1327" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1328" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>872</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1329" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>873</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1330" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1331" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>875</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1332" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1333" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>877</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1334" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1335" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1336" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
